--- a/biology/Botanique/Alpiste_des_Canaries/Alpiste_des_Canaries.xlsx
+++ b/biology/Botanique/Alpiste_des_Canaries/Alpiste_des_Canaries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalaris canariensis
 L’alpiste ou alpiste des Canaries (Phalaris canariensis) est une plante herbacée de la famille des Poaceae (graminées), sous-famille des  Pooideae, tribu des Aveneae, cultivée comme céréale secondaire pour ses graines appréciées des oiseaux.
-Selon une étude australienne de 2004, Phalaris canariensis serait une forme domestiquée de Phalaris brachystachys[2].
+Selon une étude australienne de 2004, Phalaris canariensis serait une forme domestiquée de Phalaris brachystachys.
 Noms communs : alpiste, alpiste des Canaries, blé des Canaries, millet long ; de : Kanariengras, en : canary grass, es : alpiste, it : scagliuola, canaria.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle à tiges dressées de 40 cm à 1 m de hauteur ; feuilles de 5 à 8 mm de large ; inflorescence en forme d’épi ovoïde.
 </t>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique du Nord (Maroc), Îles Canaries, Açores, Madère. Cultivé dans les régions méditerranéennes.
 </t>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alimentation animale : graines pour oiseaux de volière et volaille ; fourrage.
 Alimentation humaine dans certains pays méditerranéens et au Mexique où elle peut servir à préparer l'atole.</t>
@@ -607,9 +625,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 avril 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 avril 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce :
 Phalaris canariensis subsp. brachystachys (Link) Posp.
 variétés :
@@ -647,7 +667,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2013, Santé Canada a reçu une demande de mise en marché de variétés de graines d'alpiste des Canaries glabres (dépourvues de poils) déglumée.
 </t>
@@ -678,9 +700,11 @@
           <t>Commerce</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, la France a importé en moyenne 120 tonnes d'alpiste par mois, à 98 % en provenance des Pays-Bas, de la Belgique et du Canada[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, la France a importé en moyenne 120 tonnes d'alpiste par mois, à 98 % en provenance des Pays-Bas, de la Belgique et du Canada.
 </t>
         </is>
       </c>
